--- a/biology/Botanique/Clematis_patens_'Bees'_Jubilee'/Clematis_patens_'Bees'_Jubilee'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Bees'_Jubilee'/Clematis_patens_'Bees'_Jubilee'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Bees%27_Jubilee%27</t>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clematis patens 'Bees' Jubilee' est un cultivar de clématite obtenu en 1958 par Bees Ltd Nurseries en Angleterre.
 'Bees' Jubilee' a été nommée pour fêter les 25 ans de la pépinière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Bees%27_Jubilee%27</t>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,19 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette clématite fait partie du groupe 2, ce qui implique une floraison printanière et automnale sur le bois de l'année.
-Feuilles
-Les feuilles caduques de cette clématite sont parfois simple, parfois alternes.
-Fleurs
-La clématite patens 'Bees' Jubilee' dispose d'une fleur moyenne blanc rosé avec une médiane plus foncée. La fleur a un diamètre d'environ 15 cm et est hermaphrodites.
-Sépales
-Les sépales de la clématite 'Bees' Jubilee' mesurent entre 7 et 10 cm, largement elliptiques, qui se chevauchent et disposent d'un bord ondulé. La pointe est courbée vers le bas.
-Étamines et stigmates
-'Bees' Jubilee' possèdent des étamines blanches et des stigmates blancs également.
-Parfum
-Cette clématite n'a pas de parfum.
 </t>
         </is>
       </c>
@@ -535,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Bees%27_Jubilee%27</t>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +554,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles caduques de cette clématite sont parfois simple, parfois alternes.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -561,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Bees%27_Jubilee%27</t>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France, la clématite 'Bees' Jubilee' est distribué plusieurs producteurs français de clématites.
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite patens 'Bees' Jubilee' dispose d'une fleur moyenne blanc rosé avec une médiane plus foncée. La fleur a un diamètre d'environ 15 cm et est hermaphrodites.
 </t>
         </is>
       </c>
@@ -592,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Bees%27_Jubilee%27</t>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +628,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Bees' Jubilee' ne dispose pas de protection variétale.
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sépales de la clématite 'Bees' Jubilee' mesurent entre 7 et 10 cm, largement elliptiques, qui se chevauchent et disposent d'un bord ondulé. La pointe est courbée vers le bas.
 </t>
         </is>
       </c>
@@ -623,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Bees%27_Jubilee%27</t>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,24 +669,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Culture</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantation
-La clématite 'Bees' Jubilee' s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant et fertile. Ce cultivar est particulièrement adapté au sol lourd.
-Croissance
-À taille adulte cette clématite s'élance entre 2 et 3 mètres.
-Floraison
-'Bees' Jubilee' fleurit deux fois par an sur le bois de l'année; au printemps elle dispose d'une floraison entre juin et juillet. À l'automne la floraison est entre août et septembre. Elle fait partie du groupe 2
-Taille
-La clématite 'Bees' Jubilee' a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille sévère, c'est-à-dire une taille à 30 cm sur un tiers des banches.
-Résistance
-Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
-Maladies et ravageurs
-La clématite 'Bees' Jubilee' est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
-Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Étamines et stigmates</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Bees' Jubilee' possèdent des étamines blanches et des stigmates blancs également.
 </t>
         </is>
       </c>
@@ -666,7 +695,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Bees%27_Jubilee%27</t>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -681,10 +710,370 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite n'a pas de parfum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la clématite 'Bees' Jubilee' est distribué plusieurs producteurs français de clématites.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Bees' Jubilee' ne dispose pas de protection variétale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Bees' Jubilee' s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant et fertile. Ce cultivar est particulièrement adapté au sol lourd.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À taille adulte cette clématite s'élance entre 2 et 3 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Bees' Jubilee' fleurit deux fois par an sur le bois de l'année; au printemps elle dispose d'une floraison entre juin et juillet. À l'automne la floraison est entre août et septembre. Elle fait partie du groupe 2
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Bees' Jubilee' a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille sévère, c'est-à-dire une taille à 30 cm sur un tiers des banches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Bees' Jubilee' est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
+Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Bees'_Jubilee'</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Bees%27_Jubilee%27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite 'Bees' Jubilee' a obtenu le RHS Award of garden merit décerné par la Royal Horticultural Society en Angleterre.
 </t>
